--- a/WebApplication3/wwwroot/Formatos/DiperadmonPersonalMilitarRetiroBaja.xlsx
+++ b/WebApplication3/wwwroot/Formatos/DiperadmonPersonalMilitarRetiroBaja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A87A20-5C8C-415B-988A-507059DE8177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31C0DBB7-0F2D-4D1A-8AA3-0E3CCB07A3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5685" yWindow="7500" windowWidth="19665" windowHeight="7815" xr2:uid="{3C4B8FF1-87E6-4F92-8258-E30963A6C2D6}"/>
+    <workbookView xWindow="3105" yWindow="9120" windowWidth="22320" windowHeight="6480" xr2:uid="{3C4B8FF1-87E6-4F92-8258-E30963A6C2D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>DNI</t>
   </si>
@@ -57,25 +57,43 @@
     <t>FECHA RETIRO</t>
   </si>
   <si>
-    <t>72733271</t>
-  </si>
-  <si>
     <t>311</t>
   </si>
   <si>
     <t>Masculino</t>
   </si>
   <si>
-    <t>011</t>
-  </si>
-  <si>
     <t>06/10/1990</t>
   </si>
   <si>
     <t>26/10/1990</t>
   </si>
   <si>
-    <t>1</t>
+    <t>02733271</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>3101</t>
+  </si>
+  <si>
+    <t>3234</t>
+  </si>
+  <si>
+    <t>O12</t>
+  </si>
+  <si>
+    <t>S02</t>
+  </si>
+  <si>
+    <t>06/10/2022</t>
+  </si>
+  <si>
+    <t>26/10/2022</t>
+  </si>
+  <si>
+    <t>02731171</t>
   </si>
 </sst>
 </file>
@@ -139,11 +157,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -459,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC31799E-9BD2-47C0-BE8B-E814EBE32B18}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,25 +515,48 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3">
+        <v>332</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
